--- a/DB/Exports/Reportes/Reportes 29-01-24.xlsx
+++ b/DB/Exports/Reportes/Reportes 29-01-24.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,6 +452,121 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>SE ENVIO UN TEXTO EN BLANCO</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>25/01/2024 15:59:02</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>101</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25/01/2024 15:59:04</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>SE ENVIO UN TEXTO EN BLANCO</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>26/01/2024 13:37:20</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>101</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>26/01/2024 13:37:21</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sadsa</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>26/01/2024 13:54:01</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>101</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>26/01/2024 13:54:03</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sdascxccx</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>26/01/2024 13:54:05</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12321</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>26/01/2024 13:54:11</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Prueba</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>26/01/2024 13:54:13</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>108</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>26/01/2024 13:54:25</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>101</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
